--- a/biology/Médecine/Thromboxane/Thromboxane.xlsx
+++ b/biology/Médecine/Thromboxane/Thromboxane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thromboxanes sont des cytokines à effet vasoconstricteur. Elles engendrent une augmentation de la pression artérielle. Elles activent aussi l'agrégation des plaquettes et aident à la coagulation sanguine et à la formation du thrombus ou caillot sanguin, d'où elles tirent leur appellation. Elles sont en équilibre homéostatique dans l'appareil circulatoire avec les prostacyclines.
 Les thromboxanes appartiennent à une sous-catégorie des eicosanoïdes.
@@ -512,9 +524,11 @@
           <t>Voie de biosynthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont produites dans les thrombocytes[1] (plaquettes) par la thromboxane-A synthase à partir des endoperoxydes, les prostaglandines, elles-mêmes produites par des cyclooxygénases (COX, ou plus précisément la prostaglandine H2 synthase qui possède un domaine COX, appelé ainsi pour Cyclo-OXygénase) à partir de l'acide arachidonique (arachidonate).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont produites dans les thrombocytes (plaquettes) par la thromboxane-A synthase à partir des endoperoxydes, les prostaglandines, elles-mêmes produites par des cyclooxygénases (COX, ou plus précisément la prostaglandine H2 synthase qui possède un domaine COX, appelé ainsi pour Cyclo-OXygénase) à partir de l'acide arachidonique (arachidonate).
 </t>
         </is>
       </c>
